--- a/国旗班升降旗智能排班系统/python文件解析并输出txt文件/队员时间表.xlsx
+++ b/国旗班升降旗智能排班系统/python文件解析并输出txt文件/队员时间表.xlsx
@@ -1,182 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++程序\国旗班升降旗智能排班系统\python文件解析并输出txt文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7AE168-E4A7-4843-8E4D-712ED8ABAA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5AC9C5-7D5A-459C-867D-43CCCB5BC080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>名称：〖唐灏楠〗┋年级：〖1〗┋身高：（cm）〖189〗┋性别：〖男〗┋11ew┋32ew┋11nj┋22nj┋41nj┋52nj</t>
+    <t>名称：〖李欣〗┋年级：〖3〗┋身高：（cm）〖165〗┋性别：〖女〗┋11ew┋12ew┋21ew┋22ew┋42ew┋11nj┋12nj┋21nj┋22nj┋42nj</t>
   </si>
   <si>
-    <t>名称：〖祝相忆〗┋年级：〖1〗┋身高：（cm）〖168〗┋性别：〖女〗┋11ew┋21ew┋41ew┋51ew┋22nj┋42nj</t>
+    <t>名称：〖况泽平〗┋年级：〖3〗┋身高：（cm）〖193〗┋性别：〖男〗┋11ew┋12ew┋31ew┋51ew┋12nj</t>
   </si>
   <si>
-    <t>名称：〖徐鸿轩〗┋年级：〖1〗┋身高：（cm）〖182〗┋性别：〖男〗┋12ew┋31ew┋12nj┋31nj</t>
+    <t>名称：〖曾思铭〗┋年级：〖3〗┋身高：（cm）〖170〗┋性别：〖男〗┋11ew┋22ew┋41ew┋51ew┋52ew┋11nj┋22nj┋41nj┋51nj┋52nj</t>
   </si>
   <si>
-    <t>名称：〖徐培达〗┋年级：〖2〗┋身高：（cm）〖177〗┋性别：〖男〗┋11ew┋22ew┋41ew┋22nj┋31nj┋41nj┋52nj</t>
+    <t>名称：〖武姿〗┋年级：〖2〗┋身高：（cm）〖170〗┋性别：〖女〗┋21ew┋31ew┋41ew┋42ew┋51ew┋42nj</t>
   </si>
   <si>
-    <t>名称：〖马利国〗┋年级：〖1〗┋身高：（cm）〖176〗┋性别：〖男〗┋11ew┋11nj┋12nj┋42nj</t>
+    <t>名称：〖段柏宇〗┋年级：〖2〗┋身高：（cm）〖178〗┋性别：〖男〗┋11ew┋12ew┋22ew┋31ew┋32ew┋42ew┋51ew┋52ew┋11nj┋12nj┋22nj┋31nj┋32nj┋42nj┋51nj┋52nj</t>
   </si>
   <si>
-    <t>名称：〖段柏宇〗┋年级：〖1〗┋身高：（cm）〖179〗┋性别：〖男〗┋31ew┋32ew┋41ew┋52ew┋21nj┋32nj┋52nj</t>
+    <t>名称：〖闻锋〗┋年级：〖2〗┋身高：（cm）〖183〗┋性别：〖男〗┋11ew┋21ew┋41ew┋42ew┋51ew┋52ew┋41nj┋42nj┋52nj</t>
   </si>
   <si>
-    <t>名称：〖辛亚旋〗┋年级：〖2〗┋身高：（cm）〖178〗┋性别：〖男〗┋12ew┋42ew┋21nj</t>
+    <t>名称：〖李龙宇〗┋年级：〖2〗┋身高：（cm）〖182〗┋性别：〖男〗┋11ew┋12ew┋32ew┋42ew┋52ew┋11nj┋12nj</t>
   </si>
   <si>
-    <t>名称：〖杨鹏飞〗┋年级：〖2〗┋42ew┋52ew</t>
+    <t>名称：〖邵广泰〗┋年级：〖2〗┋身高：（cm）〖185〗┋性别：〖男〗┋12ew┋21ew┋22ew┋42ew┋51ew┋12nj┋21nj┋22nj┋42nj┋51nj</t>
   </si>
   <si>
-    <t>名称：〖况泽平〗┋年级：〖3〗┋11ew┋31ew┋52ew</t>
+    <t>名称：〖空〗┋年级：〖2〗┋身高：（cm）〖188〗┋性别：〖男〗</t>
   </si>
   <si>
-    <t>名称：〖程驰〗┋年级：〖2〗┋身高：（cm）〖181〗┋性别：〖男〗┋22ew┋32ew┋51ew┋11nj┋31nj┋32nj</t>
-  </si>
-  <si>
-    <t>名称：〖武姿〗┋年级：〖1〗┋身高：（cm）〖170〗┋性别：〖女〗┋12ew┋21ew┋31ew┋41ew┋42ew┋51ew┋12nj┋42nj</t>
-  </si>
-  <si>
-    <t>名称：〖曾思铭〗┋年级：〖2〗┋身高：（cm）〖170〗┋性别：〖男〗</t>
-  </si>
-  <si>
-    <t>名称：〖朱子玥〗┋年级：〖1〗┋身高：（cm）〖168〗┋性别：〖女〗┋11ew┋22ew┋32ew┋41ew┋42ew┋51ew┋22nj</t>
-  </si>
-  <si>
-    <t>名称：〖黄瀚锋〗┋年级：〖2〗┋身高：（cm）〖175〗┋性别：〖男〗┋11ew┋32ew┋51ew┋32nj</t>
-  </si>
-  <si>
-    <t>名称：〖布尔汉江〗┋年级：〖2〗┋身高：（cm）〖180〗┋性别：〖男〗┋12ew┋41ew┋42ew┋31nj┋32nj</t>
-  </si>
-  <si>
-    <t>名称：〖江涛〗┋年级：〖2〗┋身高：（cm）〖174〗┋性别：〖男〗┋11ew┋32ew┋41ew┋31nj┋32nj┋51nj</t>
-  </si>
-  <si>
-    <t>名称：〖孟孜宽〗┋年级：〖1〗┋身高：（cm）〖186〗┋性别：〖男〗┋12ew┋51ew┋21nj┋22nj</t>
-  </si>
-  <si>
-    <t>名称：〖王鑫〗┋年级：〖1〗┋身高：（cm）〖184〗┋性别：〖男〗┋32ew┋21nj┋42nj</t>
-  </si>
-  <si>
-    <t>名称：〖张明智〗┋年级：〖2〗┋身高：（cm）〖185〗┋性别：〖男〗┋22ew┋41ew┋22nj┋41nj</t>
-  </si>
-  <si>
-    <t>名称：〖祝福银〗┋年级：〖2〗┋身高：（cm）〖180〗┋性别：〖男〗┋12ew┋21ew┋32ew┋51ew┋41nj┋52nj</t>
-  </si>
-  <si>
-    <t>名称：〖尚倩怡〗┋年级：〖2〗┋身高：（cm）〖164〗┋性别：〖女〗┋32ew┋22nj┋31nj┋41nj┋51nj┋52nj</t>
-  </si>
-  <si>
-    <t>名称：〖徐银利〗┋年级：〖2〗┋身高：（cm）〖168〗┋性别：〖女〗┋21ew┋41ew┋11nj┋41nj</t>
-  </si>
-  <si>
-    <t>名称：〖吴小芳〗┋年级：〖2〗┋身高：（cm）〖170〗┋性别：〖女〗┋31ew┋42ew┋21nj┋42nj┋51nj</t>
-  </si>
-  <si>
-    <t>名称：〖王怡臻〗┋年级：〖2〗┋身高：（cm）〖184〗┋性别：〖男〗┋11ew┋41ew┋11nj┋31nj┋51nj</t>
-  </si>
-  <si>
-    <t>名称：〖白其凡〗┋年级：〖2〗┋身高：（cm）〖185〗┋性别：〖男〗┋32ew┋51ew┋32nj┋41nj┋51nj┋52nj</t>
-  </si>
-  <si>
-    <t>名称：〖封佳洋〗┋年级：〖1〗┋身高：（cm）〖175〗┋性别：〖男〗┋11ew┋21ew┋41ew</t>
-  </si>
-  <si>
-    <t>名称：〖吴佳慧〗┋年级：〖1〗┋身高：（cm）〖173〗┋性别：〖女〗┋22ew┋11nj┋12nj┋31nj┋52nj</t>
-  </si>
-  <si>
-    <t>名称：〖胡鸿宇〗┋年级：〖1〗┋身高：（cm）〖178〗┋性别：〖男〗┋11ew┋21ew┋31ew┋32ew</t>
-  </si>
-  <si>
-    <t>名称：〖闻锋〗┋年级：〖1〗┋身高：（cm）〖183〗┋性别：〖男〗┋21ew┋31ew┋32ew┋41ew┋31nj┋42nj</t>
-  </si>
-  <si>
-    <t>名称：〖胡玲娜〗┋年级：〖1〗┋身高：（cm）〖178〗┋性别：〖女〗┋11ew┋31ew┋32ew┋41ew┋21nj┋22nj</t>
-  </si>
-  <si>
-    <t>名称：〖安洵增〗┋年级：〖1〗┋身高：（cm）〖182〗┋性别：〖男〗┋22ew┋31ew┋32ew┋51ew┋51nj</t>
-  </si>
-  <si>
-    <t>名称：〖李棋智〗┋年级：〖1〗┋身高：（cm）〖181〗┋性别：〖男〗┋21ew┋22ew┋41ew┋21nj┋32nj┋41nj┋52nj</t>
-  </si>
-  <si>
-    <t>名称：〖马立国〗┋年级：〖1〗┋身高：（cm）〖175〗┋性别：〖男〗┋22ew┋51ew┋12nj┋21nj┋41nj┋42nj</t>
-  </si>
-  <si>
-    <t>名称：〖韩志远〗┋年级：〖1〗┋身高：（cm）〖183〗┋性别：〖男〗┋11ew┋31ew┋32ew┋11nj┋22nj┋51nj</t>
-  </si>
-  <si>
-    <t>名称：〖胡博皓〗┋年级：〖1〗┋身高：（cm）〖185〗┋性别：〖男〗┋12ew┋21ew┋31ew┋41ew┋52ew┋21nj┋32nj┋41nj</t>
-  </si>
-  <si>
-    <t>名称：〖李龙宇〗┋年级：〖1〗┋身高：（cm）〖183〗┋性别：〖男〗┋11ew┋21ew┋41ew┋21nj┋51nj</t>
-  </si>
-  <si>
-    <t>名称：〖邵广泰〗┋年级：〖1〗┋身高：（cm）〖185〗┋性别：〖男〗┋32ew┋41ew┋11nj┋21nj┋22nj┋51nj┋52nj</t>
-  </si>
-  <si>
-    <t>名称：〖祝相忆〗┋年级：〖1〗┋身高：（cm）〖178〗┋性别：〖女〗┋22ew┋32ew┋41ew┋42ew┋22nj┋31nj┋42nj</t>
-  </si>
-  <si>
-    <t>名称：〖陈瑞瑞〗┋年级：〖1〗┋身高：（cm）〖165〗┋性别：〖女〗┋12ew┋21ew┋22ew┋42ew┋11nj┋31nj┋32nj┋51nj</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称：〖湖北路人〗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>┋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年级：〖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称：〖杨鹏飞〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级：〖3〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身高：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>178</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
@@ -197,57 +141,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>身高：（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）〖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>179</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>┋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>性别：〖男〗</t>
     </r>
     <r>
@@ -264,6 +157,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>12ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>21ew</t>
     </r>
     <r>
@@ -296,7 +205,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>31ew</t>
+      <t>41ew</t>
     </r>
     <r>
       <rPr>
@@ -328,23 +237,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>51ew</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>┋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>52ew</t>
+      <t>12nj</t>
     </r>
     <r>
       <rPr>
@@ -376,7 +269,39 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>22nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>41nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>42nj</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -388,24 +313,24 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>名称：〖刘泽浩〗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>┋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年级：〖1〗</t>
+      <t>名称：〖王鑫〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级：〖2〗</t>
     </r>
     <r>
       <rPr>
@@ -447,12 +372,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>179</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
+      <t>187</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
@@ -489,6 +414,70 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>11ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>21ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>32ew</t>
     </r>
     <r>
@@ -521,6 +510,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>51ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>12nj</t>
     </r>
     <r>
@@ -553,31 +558,1019 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>22nj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>┋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>41nj</t>
+      <t>31nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32nj</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>名称：〖猹zz〗┋年级：〖2〗┋身高：（cm）〖170～175〗┋性别：〖♀〗┋11ew┋32ew┋52ew┋31nj┋42nj</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称：〖陈瑞睿〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级：〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身高：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>167</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性别：〖女〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>41ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>51ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>52ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>51nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>52nj</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>名称：〖崔展言〗┋年级：〖2〗┋身高：（cm）〖170〗┋性别：〖女〗┋21ew┋22ew┋32ew┋42ew┋52ew┋21nj┋22nj┋32nj┋42nj┋52nj</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称：〖张明智〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级：〖3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身高：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性别：〖男〗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称：〖徐培达〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级：〖3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身高：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性别：〖男〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31nj</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称：〖李祺智〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级：〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身高：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>184</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性别：〖男〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>51ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22nj</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称：〖王怡臻〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级：〖3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身高：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>183</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性别：〖男〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22ew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22nj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31nj</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,16 +1578,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -603,9 +1596,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -620,14 +1612,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="微软雅黑"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -649,25 +1641,27 @@
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Percent" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,20 +1997,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="145.44140625" customWidth="1"/>
+    <col min="1" max="1" width="133.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1026,12 +2020,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1039,204 +2033,104 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>